--- a/pred_ohlcv/54_21/2019-11-02 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 CHR ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-131379.20187272</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-131368.20187272</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-134368.20187272</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -990,7 +990,7 @@
         <v>17595.21452728</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>15896.13452728</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>62451.25042728</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>17196.16242728</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>17541.19832728</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>17415.42222728</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>66802.50142727999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1173465.72298783</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1203381.54268783</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1219363.13498783</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1165909.97458783</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1279230.34278783</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1204217.37838783</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1184565.05658783</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1270957.00098783</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1335964.01718783</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1267545.27998783</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 CHR ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-68805.70547272</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>111205.29452728</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>50445.28722728</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>23178.01682728</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>15896.13452728</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>17415.42222728</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>66802.50142727999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>872886.6387777998</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>872207.7427777998</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>933021.8296777998</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1205911.56888783</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1205921.56888783</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1210110.21158783</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1189237.44498783</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1173465.72298783</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1203381.54268783</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1203381.54268783</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1343364.79048783</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1343353.79048783</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1219363.13498783</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1165909.97458783</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1279230.34278783</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1223974.84598783</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1223994.84598783</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1202169.80288783</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1184565.05658783</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
